--- a/fuentes/contenidos/grado07/guion01/Escaleta_CS_07_01_CO.xlsx
+++ b/fuentes/contenidos/grado07/guion01/Escaleta_CS_07_01_CO.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\CienciasSociales\fuentes\contenidos\grado07\guion01\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14626" windowHeight="6944"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14625" windowHeight="6945"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="DATOS" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="130000" concurrentCalc="0"/>
+  <calcPr calcId="130000"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="215">
   <si>
     <t>Autoevaluación</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -666,19 +661,16 @@
     <t>2 Recursos  empleados del Banco de Contenidos recurso No 10 y 17</t>
   </si>
   <si>
-    <t>RF</t>
-  </si>
-  <si>
-    <t>Recursos F</t>
-  </si>
-  <si>
-    <t>Recurso F12-01</t>
-  </si>
-  <si>
-    <t>RF_01_01_CO</t>
-  </si>
-  <si>
     <t>Recurso M1C-01</t>
+  </si>
+  <si>
+    <t>Recursos M aleatorios y diaporama F1</t>
+  </si>
+  <si>
+    <t>Diaporama F1-01</t>
+  </si>
+  <si>
+    <t>RM_01_02_CO</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1482,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1500,37 +1492,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12:U12"/>
+      <selection pane="bottomLeft" activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.265625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.86328125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.73046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.265625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="20.265625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="7.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="6" customWidth="1"/>
-    <col min="10" max="10" width="40.73046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.265625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.86328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.6640625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="27.1328125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="2.73046875" style="6" customWidth="1"/>
-    <col min="17" max="17" width="6.265625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="3.46484375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="33.1328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.3984375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="12.1328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="10.86328125" style="6"/>
+    <col min="10" max="10" width="40.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.7109375" style="6" customWidth="1"/>
+    <col min="15" max="15" width="27.140625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="3.42578125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="33.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.42578125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="15" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:21" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>92</v>
       </c>
@@ -1593,7 +1585,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" s="15" customFormat="1" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A2" s="45"/>
       <c r="B2" s="46"/>
       <c r="C2" s="47"/>
@@ -1616,7 +1608,7 @@
       <c r="T2" s="45"/>
       <c r="U2" s="45"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>32</v>
       </c>
@@ -1671,7 +1663,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>32</v>
       </c>
@@ -1728,7 +1720,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>32</v>
       </c>
@@ -1785,7 +1777,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>32</v>
       </c>
@@ -1842,7 +1834,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>32</v>
       </c>
@@ -1901,7 +1893,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>32</v>
       </c>
@@ -1960,7 +1952,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>32</v>
       </c>
@@ -2017,7 +2009,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>32</v>
       </c>
@@ -2072,7 +2064,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>32</v>
       </c>
@@ -2127,7 +2119,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>32</v>
       </c>
@@ -2174,23 +2166,23 @@
       <c r="P12" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="41">
         <v>6</v>
       </c>
-      <c r="R12" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="S12" s="8" t="s">
+      <c r="R12" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="S12" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="T12" s="8" t="s">
+      <c r="T12" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="U12" s="8" t="s">
+      <c r="U12" s="41" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>32</v>
       </c>
@@ -2234,20 +2226,20 @@
       <c r="Q13" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="S13" s="25" t="s">
+      <c r="S13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="T13" s="25" t="s">
+      <c r="T13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="U13" s="25" t="s">
+      <c r="U13" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>32</v>
       </c>
@@ -2304,7 +2296,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>32</v>
       </c>
@@ -2363,7 +2355,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>32</v>
       </c>
@@ -2420,7 +2412,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>32</v>
       </c>
@@ -2479,7 +2471,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>32</v>
       </c>
@@ -2536,7 +2528,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>32</v>
       </c>
@@ -2591,13 +2583,13 @@
         <v>183</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="U19" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>32</v>
       </c>
@@ -2652,7 +2644,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>32</v>
       </c>
@@ -2705,7 +2697,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>32</v>
       </c>
@@ -2760,7 +2752,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
         <v>32</v>
       </c>
@@ -2823,7 +2815,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>32</v>
       </c>
@@ -2886,7 +2878,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>32</v>
       </c>
@@ -2947,7 +2939,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
         <v>32</v>
       </c>
@@ -3008,7 +3000,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
         <v>32</v>
       </c>
@@ -3069,7 +3061,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>32</v>
       </c>
@@ -3124,7 +3116,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>32</v>
       </c>
@@ -3183,7 +3175,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="38" t="s">
         <v>32</v>
       </c>
@@ -3246,7 +3238,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
         <v>210</v>
       </c>
@@ -3307,15 +3299,15 @@
       <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.86328125" customWidth="1"/>
-    <col min="4" max="4" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>117</v>
       </c>
@@ -3335,7 +3327,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>39</v>
@@ -3353,7 +3345,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>40</v>
@@ -3371,7 +3363,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>41</v>
@@ -3385,7 +3377,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>42</v>
@@ -3399,7 +3391,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>43</v>
@@ -3411,7 +3403,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>44</v>
@@ -3421,7 +3413,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>114</v>
@@ -3431,7 +3423,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>45</v>
@@ -3441,7 +3433,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>46</v>
@@ -3451,7 +3443,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>47</v>
@@ -3463,7 +3455,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>115</v>
@@ -3475,7 +3467,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>48</v>
@@ -3487,7 +3479,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>49</v>
@@ -3499,7 +3491,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>50</v>
@@ -3511,7 +3503,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>51</v>
@@ -3523,7 +3515,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>13</v>
@@ -3535,7 +3527,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>49</v>
@@ -3547,7 +3539,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>14</v>
@@ -3559,7 +3551,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>15</v>
@@ -3571,7 +3563,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>16</v>
@@ -3583,7 +3575,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>17</v>
@@ -3595,7 +3587,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>116</v>
@@ -3607,7 +3599,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>18</v>
@@ -3619,7 +3611,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>19</v>
@@ -3629,7 +3621,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>20</v>
@@ -3639,7 +3631,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>21</v>
@@ -3649,7 +3641,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>22</v>
@@ -3659,7 +3651,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>23</v>
@@ -3669,7 +3661,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>24</v>
@@ -3679,7 +3671,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>25</v>
@@ -3689,7 +3681,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>26</v>
@@ -3699,7 +3691,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>27</v>
@@ -3709,7 +3701,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>113</v>
@@ -3719,7 +3711,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>28</v>
@@ -3729,7 +3721,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" ht="14.45" x14ac:dyDescent="0.45">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>29</v>
@@ -3739,7 +3731,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>30</v>
@@ -3749,7 +3741,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>126</v>
@@ -3759,7 +3751,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>1</v>
@@ -3769,7 +3761,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="4" t="s">
         <v>2</v>
@@ -3779,7 +3771,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
         <v>3</v>
@@ -3789,7 +3781,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="4" t="s">
         <v>4</v>
@@ -3799,7 +3791,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="4" t="s">
         <v>5</v>
@@ -3809,7 +3801,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="4" t="s">
         <v>6</v>
@@ -3819,7 +3811,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
         <v>7</v>
@@ -3829,7 +3821,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="4" t="s">
         <v>8</v>
@@ -3839,7 +3831,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="4" t="s">
         <v>9</v>
@@ -3849,7 +3841,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="4" t="s">
         <v>10</v>
@@ -3859,7 +3851,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="4" t="s">
         <v>11</v>
@@ -3869,7 +3861,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="4" t="s">
         <v>12</v>
